--- a/Recommender Systems.xlsx
+++ b/Recommender Systems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ab66e9dcc0b1c5a/Documents/JKU/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="270" documentId="8_{B269E189-A041-4C57-A5F9-79DB936EAA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30BC7007-8963-4225-A699-08DDD811A13C}"/>
+  <xr:revisionPtr revIDLastSave="274" documentId="8_{B269E189-A041-4C57-A5F9-79DB936EAA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9F4CD8B-2156-47EE-A50C-E3B796C4250D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{211CF2DE-5A19-4900-9A74-DA39CB4EE06E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="380">
   <si>
     <t>Friend A</t>
   </si>
@@ -1482,6 +1482,9 @@
       </rPr>
       <t>, Azure might be less sales)</t>
     </r>
+  </si>
+  <si>
+    <t>SVD:</t>
   </si>
 </sst>
 </file>
@@ -1806,6 +1809,55 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>1048547</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1806612</xdr:colOff>
+      <xdr:row>1048565</xdr:row>
+      <xdr:rowOff>79689</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="A screenshot of a computer&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D890BD8-E559-CC92-62EC-195E331CB087}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5295900" y="191758321080"/>
+          <a:ext cx="6393852" cy="3325809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
@@ -2127,10 +2179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFDDEB81-03CB-473B-BCCA-CF43E946A717}">
-  <dimension ref="B1048566:S1048575"/>
+  <dimension ref="B1048547:S1048575"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1048547" workbookViewId="0">
-      <selection activeCell="B1048560" sqref="B1048560"/>
+      <selection activeCell="B1048571" sqref="B1048571"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2152,6 +2204,11 @@
     <col min="19" max="19" width="38.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1048547" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M1048547" t="s">
+        <v>379</v>
+      </c>
+    </row>
     <row r="1048566" spans="2:19" x14ac:dyDescent="0.3">
       <c r="M1048566" s="1" t="s">
         <v>44</v>
@@ -2516,6 +2573,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Recommender Systems.xlsx
+++ b/Recommender Systems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ab66e9dcc0b1c5a/Documents/JKU/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="274" documentId="8_{B269E189-A041-4C57-A5F9-79DB936EAA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9F4CD8B-2156-47EE-A50C-E3B796C4250D}"/>
+  <xr:revisionPtr revIDLastSave="334" documentId="8_{B269E189-A041-4C57-A5F9-79DB936EAA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE9F6CE2-3926-4653-9651-15EA9842F10C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{211CF2DE-5A19-4900-9A74-DA39CB4EE06E}"/>
   </bookViews>
@@ -18,6 +18,8 @@
     <sheet name="Models1" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="List of Models" sheetId="4" r:id="rId4"/>
     <sheet name="Cloud" sheetId="5" r:id="rId5"/>
+    <sheet name="Cloud Roadmap" sheetId="6" r:id="rId6"/>
+    <sheet name="Certifications" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="545">
   <si>
     <t>Friend A</t>
   </si>
@@ -1486,12 +1488,507 @@
   <si>
     <t>SVD:</t>
   </si>
+  <si>
+    <t>Service Category</t>
+  </si>
+  <si>
+    <t>AWS Service Name</t>
+  </si>
+  <si>
+    <t>Azure Service Name</t>
+  </si>
+  <si>
+    <t>Primary Use</t>
+  </si>
+  <si>
+    <t>Pricing Model</t>
+  </si>
+  <si>
+    <t>Compute</t>
+  </si>
+  <si>
+    <t>Amazon EC2</t>
+  </si>
+  <si>
+    <t>Azure Virtual Machines</t>
+  </si>
+  <si>
+    <t>Google Compute Engine</t>
+  </si>
+  <si>
+    <t>IBM Virtual Servers</t>
+  </si>
+  <si>
+    <t>Scalable virtual servers for compute capacity</t>
+  </si>
+  <si>
+    <t>Pay-as-you-go, Reserved Instances, Spot Instances</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Amazon S3</t>
+  </si>
+  <si>
+    <t>Azure Blob Storage</t>
+  </si>
+  <si>
+    <t>Google Cloud Storage</t>
+  </si>
+  <si>
+    <t>IBM Cloud Object Storage</t>
+  </si>
+  <si>
+    <t>Object storage for data backup and archiving</t>
+  </si>
+  <si>
+    <t>Pay-as-you-go based on storage used</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Amazon RDS</t>
+  </si>
+  <si>
+    <t>Azure SQL Database</t>
+  </si>
+  <si>
+    <t>Google Cloud SQL</t>
+  </si>
+  <si>
+    <t>IBM Db2 on Cloud</t>
+  </si>
+  <si>
+    <t>Managed relational database service</t>
+  </si>
+  <si>
+    <t>Pay-as-you-go, Reserved Instances</t>
+  </si>
+  <si>
+    <t>Serverless</t>
+  </si>
+  <si>
+    <t>AWS Lambda</t>
+  </si>
+  <si>
+    <t>Azure Functions</t>
+  </si>
+  <si>
+    <t>Google Cloud Functions</t>
+  </si>
+  <si>
+    <t>IBM Cloud Functions</t>
+  </si>
+  <si>
+    <t>Run code without provisioning servers</t>
+  </si>
+  <si>
+    <t>Pay-per-invocation and duration</t>
+  </si>
+  <si>
+    <t>Networking</t>
+  </si>
+  <si>
+    <t>Amazon VPC</t>
+  </si>
+  <si>
+    <t>Azure Virtual Network</t>
+  </si>
+  <si>
+    <t>Google Virtual Private Cloud</t>
+  </si>
+  <si>
+    <t>IBM Virtual Private Cloud</t>
+  </si>
+  <si>
+    <t>Isolated cloud resources for enhanced security</t>
+  </si>
+  <si>
+    <t>No additional cost; charges apply for associated services</t>
+  </si>
+  <si>
+    <t>Content Delivery</t>
+  </si>
+  <si>
+    <t>Amazon CloudFront</t>
+  </si>
+  <si>
+    <t>Azure CDN</t>
+  </si>
+  <si>
+    <t>Google Cloud CDN</t>
+  </si>
+  <si>
+    <t>IBM Cloud CDN</t>
+  </si>
+  <si>
+    <t>Content delivery network for fast content delivery</t>
+  </si>
+  <si>
+    <t>Pay-as-you-go based on data transfer and requests</t>
+  </si>
+  <si>
+    <t>Messaging</t>
+  </si>
+  <si>
+    <t>Amazon SNS</t>
+  </si>
+  <si>
+    <t>Azure Service Bus</t>
+  </si>
+  <si>
+    <t>Google Pub/Sub</t>
+  </si>
+  <si>
+    <t>IBM Event Streams</t>
+  </si>
+  <si>
+    <t>Managed messaging service for application communication</t>
+  </si>
+  <si>
+    <t>Pay-as-you-go based on number of requests</t>
+  </si>
+  <si>
+    <t>Monitoring</t>
+  </si>
+  <si>
+    <t>Amazon CloudWatch</t>
+  </si>
+  <si>
+    <t>Azure Monitor</t>
+  </si>
+  <si>
+    <t>Google Cloud Monitoring</t>
+  </si>
+  <si>
+    <t>IBM Monitoring</t>
+  </si>
+  <si>
+    <t>Monitoring and observability service for resources and applications</t>
+  </si>
+  <si>
+    <t>Pay-as-you-go based on metrics and logs</t>
+  </si>
+  <si>
+    <t>Amazon SageMaker</t>
+  </si>
+  <si>
+    <t>Azure Machine Learning</t>
+  </si>
+  <si>
+    <t>Google AI Platform</t>
+  </si>
+  <si>
+    <t>IBM Watson Studio</t>
+  </si>
+  <si>
+    <t>Build, train, and deploy machine learning models</t>
+  </si>
+  <si>
+    <t>Pay-as-you-go based on usage</t>
+  </si>
+  <si>
+    <t>Identity &amp; Access Management</t>
+  </si>
+  <si>
+    <t>AWS IAM</t>
+  </si>
+  <si>
+    <t>Azure Active Directory</t>
+  </si>
+  <si>
+    <t>Google Cloud IAM</t>
+  </si>
+  <si>
+    <t>IBM Cloud Identity</t>
+  </si>
+  <si>
+    <t>Securely manage access to services and resources</t>
+  </si>
+  <si>
+    <t>No additional cost</t>
+  </si>
+  <si>
+    <t>Quantum Computing</t>
+  </si>
+  <si>
+    <t>Amazon Braket</t>
+  </si>
+  <si>
+    <t>Azure Quantum</t>
+  </si>
+  <si>
+    <t>Google Quantum AI</t>
+  </si>
+  <si>
+    <t>IBM Quantum</t>
+  </si>
+  <si>
+    <t>Explore and experiment with quantum algorithms</t>
+  </si>
+  <si>
+    <t>VR/AR Services</t>
+  </si>
+  <si>
+    <t>Azure Remote Rendering</t>
+  </si>
+  <si>
+    <t>Google ARCore</t>
+  </si>
+  <si>
+    <t>IBM AR/VR Labs</t>
+  </si>
+  <si>
+    <t>Develop and render high-quality 3D models and applications</t>
+  </si>
+  <si>
+    <t>Google Cloud</t>
+  </si>
+  <si>
+    <t>Sumerian (Discontinued ??)</t>
+  </si>
+  <si>
+    <t>Dashboarding</t>
+  </si>
+  <si>
+    <t>Amazon QuickSight</t>
+  </si>
+  <si>
+    <t>Azure Power BI</t>
+  </si>
+  <si>
+    <t>Looker (formerly Data Studio)</t>
+  </si>
+  <si>
+    <t>IBM Cognos Analytics</t>
+  </si>
+  <si>
+    <t>Business intelligence and interactive dashboards</t>
+  </si>
+  <si>
+    <t>(Yellow  - Learning In Progress)</t>
+  </si>
+  <si>
+    <t>Certification Name</t>
+  </si>
+  <si>
+    <t>Estimated Preparation Hours</t>
+  </si>
+  <si>
+    <t>Primary Use Case</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>AWS Certified Cloud Practitioner</t>
+  </si>
+  <si>
+    <t>AWS Certified Solutions Architect – Associate</t>
+  </si>
+  <si>
+    <t>AWS Certified Developer – Associate</t>
+  </si>
+  <si>
+    <t>AWS Certified SysOps Administrator – Associate</t>
+  </si>
+  <si>
+    <t>AWS Certified Solutions Architect – Professional</t>
+  </si>
+  <si>
+    <t>AWS Certified DevOps Engineer – Professional</t>
+  </si>
+  <si>
+    <t>AWS Certified Security – Specialty</t>
+  </si>
+  <si>
+    <t>AWS Certified Machine Learning – Specialty</t>
+  </si>
+  <si>
+    <t>AWS Certified Data Analytics – Specialty</t>
+  </si>
+  <si>
+    <t>AWS Certified Advanced Networking – Specialty</t>
+  </si>
+  <si>
+    <t>Azure</t>
+  </si>
+  <si>
+    <t>Microsoft Certified: Azure Fundamentals (AZ-900)</t>
+  </si>
+  <si>
+    <t>Microsoft Certified: Azure Administrator Associate (AZ-104)</t>
+  </si>
+  <si>
+    <t>Microsoft Certified: Azure Developer Associate (AZ-204)</t>
+  </si>
+  <si>
+    <t>Microsoft Certified: Azure Solutions Architect Expert (AZ-305)</t>
+  </si>
+  <si>
+    <t>Microsoft Certified: Azure DevOps Engineer Expert (AZ-400)</t>
+  </si>
+  <si>
+    <t>Microsoft Certified: Azure Security Engineer Associate (AZ-500)</t>
+  </si>
+  <si>
+    <t>Microsoft Certified: Azure AI Engineer Associate (AI-102)</t>
+  </si>
+  <si>
+    <t>Microsoft Certified: Azure Data Scientist Associate (DP-100)</t>
+  </si>
+  <si>
+    <t>Microsoft Certified: Azure Data Engineer Associate (DP-203)</t>
+  </si>
+  <si>
+    <t>Google Cloud Digital Leader</t>
+  </si>
+  <si>
+    <t>Associate Cloud Engineer</t>
+  </si>
+  <si>
+    <t>Professional Cloud Architect</t>
+  </si>
+  <si>
+    <t>Professional Data Engineer</t>
+  </si>
+  <si>
+    <t>Professional Cloud Developer</t>
+  </si>
+  <si>
+    <t>Professional Cloud Network Engineer</t>
+  </si>
+  <si>
+    <t>Professional Cloud Security Engineer</t>
+  </si>
+  <si>
+    <t>Professional Machine Learning Engineer</t>
+  </si>
+  <si>
+    <t>IBM Certified Solution Advisor – Cloud Foundations V2</t>
+  </si>
+  <si>
+    <t>IBM Certified Solution Architect – Cloud Pak for Applications V4.1</t>
+  </si>
+  <si>
+    <t>IBM Certified Solution Architect – Cloud Pak for Data V4.x</t>
+  </si>
+  <si>
+    <t>IBM Certified Solution Architect – Cloud Pak for Integration V2021.2</t>
+  </si>
+  <si>
+    <t>IBM Certified Solution Architect – Cloud Pak for Automation v21.0.3</t>
+  </si>
+  <si>
+    <t>(Green - Enough Experience)</t>
+  </si>
+  <si>
+    <t>Estimated Exam Cost (USD)</t>
+  </si>
+  <si>
+    <t>Foundational AWS Cloud knowledge</t>
+  </si>
+  <si>
+    <t>Design and deploy scalable systems on AWS</t>
+  </si>
+  <si>
+    <t>Develop and maintain applications on AWS</t>
+  </si>
+  <si>
+    <t>Deployment, management, and operations on AWS</t>
+  </si>
+  <si>
+    <t>Advanced expertise in designing complex AWS solutions</t>
+  </si>
+  <si>
+    <t>Automation of applications and infrastructure on AWS</t>
+  </si>
+  <si>
+    <t>Securing AWS environments</t>
+  </si>
+  <si>
+    <t>Build, train, and deploy ML models on AWS</t>
+  </si>
+  <si>
+    <t>Design and implement AWS services for data analytics</t>
+  </si>
+  <si>
+    <t>Skills in complex AWS networking tasks</t>
+  </si>
+  <si>
+    <t>Foundational Azure knowledge</t>
+  </si>
+  <si>
+    <t>Manage and monitor Azure environments</t>
+  </si>
+  <si>
+    <t>Develop cloud applications on Azure</t>
+  </si>
+  <si>
+    <t>Design and implement Azure solutions</t>
+  </si>
+  <si>
+    <t>Combine development and operations using Azure tools</t>
+  </si>
+  <si>
+    <t>Securing Azure environments</t>
+  </si>
+  <si>
+    <t>Integrate AI into applications using Azure services</t>
+  </si>
+  <si>
+    <t>Design and implement data science solutions on Azure</t>
+  </si>
+  <si>
+    <t>Integrate, transform, and consolidate data on Azure</t>
+  </si>
+  <si>
+    <t>Foundational Google Cloud knowledge</t>
+  </si>
+  <si>
+    <t>Deploy and manage applications on Google Cloud</t>
+  </si>
+  <si>
+    <t>Design and manage robust solutions on Google Cloud</t>
+  </si>
+  <si>
+    <t>Process and analyze data on Google Cloud</t>
+  </si>
+  <si>
+    <t>Build scalable applications on Google Cloud</t>
+  </si>
+  <si>
+    <t>Design and manage network architectures on Google Cloud</t>
+  </si>
+  <si>
+    <t>Secure Google Cloud environments</t>
+  </si>
+  <si>
+    <t>Design and build ML models on Google Cloud</t>
+  </si>
+  <si>
+    <t>Foundational IBM Cloud knowledge</t>
+  </si>
+  <si>
+    <t>Design and implement solutions using IBM Cloud Pak for Applications</t>
+  </si>
+  <si>
+    <t>Design and implement data solutions using IBM Cloud Pak for Data</t>
+  </si>
+  <si>
+    <t>Design integration solutions using IBM Cloud Pak for Integration</t>
+  </si>
+  <si>
+    <t>Design automation solutions using IBM Cloud Pak for Automation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1607,8 +2104,14 @@
       <name val="Calibri Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1636,6 +2139,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1716,7 +2231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1791,6 +2306,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2182,7 +2711,7 @@
   <dimension ref="B1048547:S1048575"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1048547" workbookViewId="0">
-      <selection activeCell="B1048571" sqref="B1048571"/>
+      <selection activeCell="B1048575" sqref="B1048575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2582,7 +3111,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -3521,9 +4050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24694289-BA06-4EC2-9FC4-065759223403}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4300,4 +4827,945 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CBB53C-40A1-4E95-98FD-CD7BF7EB191C}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.109375" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>465</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
+        <v>385</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>386</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>390</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>393</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>394</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>395</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>396</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="s">
+        <v>399</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>400</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>401</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>403</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>404</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
+        <v>406</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>407</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>408</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>414</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>415</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>416</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>418</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="36" t="s">
+        <v>420</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>421</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>422</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="36" t="s">
+        <v>427</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>429</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>431</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>432</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>435</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>436</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>437</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
+        <v>447</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>451</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>452</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="36" t="s">
+        <v>454</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>455</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>457</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>458</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="36" t="s">
+        <v>460</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>466</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>461</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>462</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>463</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="36" t="s">
+        <v>467</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>468</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>469</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>472</v>
+      </c>
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="39" t="s">
+        <v>511</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="39" t="s">
+        <v>473</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB429AA-97A9-4BD1-9A01-5A0E60AB7674}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>474</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>475</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>476</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>478</v>
+      </c>
+      <c r="C2" s="42">
+        <v>20</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>513</v>
+      </c>
+      <c r="E2" s="35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="C3" s="42">
+        <v>40</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>514</v>
+      </c>
+      <c r="E3" s="35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>480</v>
+      </c>
+      <c r="C4" s="42">
+        <v>40</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>515</v>
+      </c>
+      <c r="E4" s="35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>481</v>
+      </c>
+      <c r="C5" s="42">
+        <v>40</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="E5" s="35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>482</v>
+      </c>
+      <c r="C6" s="42">
+        <v>60</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>517</v>
+      </c>
+      <c r="E6" s="35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>483</v>
+      </c>
+      <c r="C7" s="42">
+        <v>60</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>518</v>
+      </c>
+      <c r="E7" s="35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="C8" s="42">
+        <v>50</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="E8" s="35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>485</v>
+      </c>
+      <c r="C9" s="42">
+        <v>50</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>520</v>
+      </c>
+      <c r="E9" s="35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="C10" s="42">
+        <v>50</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>521</v>
+      </c>
+      <c r="E10" s="35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="C11" s="42">
+        <v>50</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>522</v>
+      </c>
+      <c r="E11" s="35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="35" t="s">
+        <v>488</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>489</v>
+      </c>
+      <c r="C12" s="42">
+        <v>15</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>523</v>
+      </c>
+      <c r="E12" s="35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="35" t="s">
+        <v>488</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>490</v>
+      </c>
+      <c r="C13" s="42">
+        <v>40</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>524</v>
+      </c>
+      <c r="E13" s="35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="s">
+        <v>488</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>491</v>
+      </c>
+      <c r="C14" s="42">
+        <v>40</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>525</v>
+      </c>
+      <c r="E14" s="35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="35" t="s">
+        <v>488</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>492</v>
+      </c>
+      <c r="C15" s="42">
+        <v>60</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>526</v>
+      </c>
+      <c r="E15" s="35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="35" t="s">
+        <v>488</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>493</v>
+      </c>
+      <c r="C16" s="42">
+        <v>60</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>527</v>
+      </c>
+      <c r="E16" s="35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="35" t="s">
+        <v>488</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>494</v>
+      </c>
+      <c r="C17" s="42">
+        <v>50</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>528</v>
+      </c>
+      <c r="E17" s="35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="35" t="s">
+        <v>488</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>495</v>
+      </c>
+      <c r="C18" s="42">
+        <v>50</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>529</v>
+      </c>
+      <c r="E18" s="35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="35" t="s">
+        <v>488</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>496</v>
+      </c>
+      <c r="C19" s="42">
+        <v>50</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="E19" s="35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="35" t="s">
+        <v>488</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>497</v>
+      </c>
+      <c r="C20" s="42">
+        <v>50</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>531</v>
+      </c>
+      <c r="E20" s="35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>498</v>
+      </c>
+      <c r="C21" s="42">
+        <v>20</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>532</v>
+      </c>
+      <c r="E21" s="35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>499</v>
+      </c>
+      <c r="C22" s="42">
+        <v>40</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>533</v>
+      </c>
+      <c r="E22" s="35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>500</v>
+      </c>
+      <c r="C23" s="42">
+        <v>60</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>534</v>
+      </c>
+      <c r="E23" s="35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="C24" s="42">
+        <v>60</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>535</v>
+      </c>
+      <c r="E24" s="35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>502</v>
+      </c>
+      <c r="C25" s="42">
+        <v>60</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>536</v>
+      </c>
+      <c r="E25" s="35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="C26" s="42">
+        <v>60</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>537</v>
+      </c>
+      <c r="E26" s="35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>504</v>
+      </c>
+      <c r="C27" s="42">
+        <v>60</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>538</v>
+      </c>
+      <c r="E27" s="35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>505</v>
+      </c>
+      <c r="C28" s="42">
+        <v>60</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>539</v>
+      </c>
+      <c r="E28" s="35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>506</v>
+      </c>
+      <c r="C29" s="42">
+        <v>20</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>540</v>
+      </c>
+      <c r="E29" s="35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>507</v>
+      </c>
+      <c r="C30" s="42">
+        <v>40</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>541</v>
+      </c>
+      <c r="E30" s="35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>508</v>
+      </c>
+      <c r="C31" s="42">
+        <v>40</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>542</v>
+      </c>
+      <c r="E31" s="35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>509</v>
+      </c>
+      <c r="C32" s="42">
+        <v>40</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>543</v>
+      </c>
+      <c r="E32" s="35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>510</v>
+      </c>
+      <c r="C33" s="42">
+        <v>40</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>544</v>
+      </c>
+      <c r="E33" s="35">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>